--- a/public/reports/consolidated_orders_18_Mar_2024.xlsx
+++ b/public/reports/consolidated_orders_18_Mar_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve">INVENTORY LIST </t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>QUANTITY AVAILABLE</t>
+  </si>
+  <si>
+    <t>STA3041</t>
+  </si>
+  <si>
+    <t>Toner HP 103A (Black)</t>
+  </si>
+  <si>
+    <t>DBI-CRTA200</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cold chain</t>
   </si>
 </sst>
 </file>
@@ -140,8 +155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Exported" ref="A10:I12" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A10:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Exported" ref="A10:I13" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A10:I13"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ULN"/>
     <tableColumn id="2" name="CODE"/>
@@ -447,10 +462,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,6 +512,27 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
